--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2683277.044688874</v>
+        <v>-2683870.911400113</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>128.7676800780711</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>101.7754565731326</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>104.630197212101</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.387790467339409</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>115.9330281675682</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.692458542846201</v>
+        <v>3.692458542846691</v>
       </c>
       <c r="W17" t="n">
         <v>28.99255802080341</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.18608130266739</v>
+        <v>60.18608130266745</v>
       </c>
       <c r="C23" t="n">
-        <v>48.19739826034913</v>
+        <v>48.19739826034919</v>
       </c>
       <c r="D23" t="n">
-        <v>39.17870230487711</v>
+        <v>39.17870230487716</v>
       </c>
       <c r="E23" t="n">
-        <v>60.92083987478264</v>
+        <v>60.9208398747827</v>
       </c>
       <c r="F23" t="n">
-        <v>80.09265596275981</v>
+        <v>80.09265596275986</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630232</v>
+        <v>81.55736574630237</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.692458542846509</v>
+        <v>3.692458542846566</v>
       </c>
       <c r="W23" t="n">
-        <v>28.99255802080341</v>
+        <v>28.99255802080347</v>
       </c>
       <c r="X23" t="n">
-        <v>48.29281625355003</v>
+        <v>48.29281625355009</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.68941404974879</v>
+        <v>59.68941404974885</v>
       </c>
     </row>
     <row r="24">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.9748428097536</v>
+        <v>180.9748428097535</v>
       </c>
       <c r="C26" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674352</v>
       </c>
       <c r="D26" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119632</v>
       </c>
       <c r="E26" t="n">
-        <v>181.7096013818689</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F26" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698459</v>
       </c>
       <c r="G26" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533884</v>
       </c>
       <c r="H26" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970383</v>
+        <v>10.93598234970372</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696095014</v>
+        <v>43.17073696095002</v>
       </c>
       <c r="V26" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499326</v>
       </c>
       <c r="W26" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278895</v>
       </c>
       <c r="X26" t="n">
-        <v>169.0815777606362</v>
+        <v>169.0815777606361</v>
       </c>
       <c r="Y26" t="n">
-        <v>180.478175556835</v>
+        <v>180.4781755568349</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.165089697961024</v>
+        <v>7.16508969796091</v>
       </c>
       <c r="V27" t="n">
-        <v>16.98340501306402</v>
+        <v>16.9834050130639</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593771</v>
+        <v>29.77444876593759</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.82086462645823</v>
+        <v>20.82086462645812</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17861149147681</v>
+        <v>75.1786114914767</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407626</v>
+        <v>48.99969008407615</v>
       </c>
       <c r="W28" t="n">
-        <v>74.16657615468952</v>
+        <v>74.16657615468941</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049264</v>
+        <v>19.81167815049253</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.68654590656033</v>
+        <v>10.68654590656021</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.9748428097536</v>
+        <v>180.9748428097535</v>
       </c>
       <c r="C29" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674352</v>
       </c>
       <c r="D29" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119632</v>
       </c>
       <c r="E29" t="n">
-        <v>181.7096013818689</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F29" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698459</v>
       </c>
       <c r="G29" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533884</v>
       </c>
       <c r="H29" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970383</v>
+        <v>10.93598234970372</v>
       </c>
       <c r="U29" t="n">
-        <v>43.17073696095014</v>
+        <v>43.17073696095002</v>
       </c>
       <c r="V29" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499326</v>
       </c>
       <c r="W29" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278895</v>
       </c>
       <c r="X29" t="n">
-        <v>169.0815777606362</v>
+        <v>169.0815777606361</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.478175556835</v>
+        <v>180.4781755568349</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.165089697961024</v>
+        <v>7.16508969796091</v>
       </c>
       <c r="V30" t="n">
-        <v>16.98340501306402</v>
+        <v>16.9834050130639</v>
       </c>
       <c r="W30" t="n">
-        <v>29.77444876593771</v>
+        <v>29.77444876593759</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.82086462645823</v>
+        <v>20.82086462645812</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17861149147681</v>
+        <v>75.1786114914767</v>
       </c>
       <c r="V31" t="n">
-        <v>48.99969008407626</v>
+        <v>48.99969008407615</v>
       </c>
       <c r="W31" t="n">
-        <v>74.16657615468952</v>
+        <v>74.16657615468941</v>
       </c>
       <c r="X31" t="n">
-        <v>19.81167815049264</v>
+        <v>19.81167815049253</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.68654590656033</v>
+        <v>10.68654590656021</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097536</v>
+        <v>180.9748428097535</v>
       </c>
       <c r="C32" t="n">
         <v>168.9861597674353</v>
@@ -3035,7 +3035,7 @@
         <v>159.9674638119633</v>
       </c>
       <c r="E32" t="n">
-        <v>181.7096013818689</v>
+        <v>181.7096013818688</v>
       </c>
       <c r="F32" t="n">
         <v>200.881417469846</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.93598234970383</v>
+        <v>10.93598234970378</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095014</v>
+        <v>43.17073696095008</v>
       </c>
       <c r="V32" t="n">
         <v>124.4812200499327</v>
@@ -3095,7 +3095,7 @@
         <v>169.0815777606362</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.478175556835</v>
+        <v>180.4781755568349</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.165089697961024</v>
+        <v>7.165089697960967</v>
       </c>
       <c r="V33" t="n">
-        <v>16.98340501306402</v>
+        <v>16.98340501306396</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593771</v>
+        <v>29.77444876593765</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.82086462645823</v>
+        <v>20.82086462645817</v>
       </c>
       <c r="U34" t="n">
-        <v>75.17861149147681</v>
+        <v>75.17861149147676</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407626</v>
+        <v>48.99969008407621</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468952</v>
+        <v>74.16657615468947</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049264</v>
+        <v>19.81167815049258</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68654590656033</v>
+        <v>10.68654590656027</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.3194838123383</v>
+        <v>139.3194838123384</v>
       </c>
       <c r="C35" t="n">
-        <v>127.33080077002</v>
+        <v>127.3308007700201</v>
       </c>
       <c r="D35" t="n">
-        <v>118.312104814548</v>
+        <v>118.3121048145481</v>
       </c>
       <c r="E35" t="n">
-        <v>140.0542423844535</v>
+        <v>140.0542423844536</v>
       </c>
       <c r="F35" t="n">
-        <v>159.2260584724307</v>
+        <v>159.2260584724308</v>
       </c>
       <c r="G35" t="n">
-        <v>160.6907682559732</v>
+        <v>160.6907682559733</v>
       </c>
       <c r="H35" t="n">
-        <v>73.91082056438948</v>
+        <v>73.91082056438961</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.515377963534813</v>
+        <v>1.515377963534917</v>
       </c>
       <c r="V35" t="n">
-        <v>82.82586105251738</v>
+        <v>82.8258610525175</v>
       </c>
       <c r="W35" t="n">
-        <v>108.1259605304743</v>
+        <v>108.1259605304744</v>
       </c>
       <c r="X35" t="n">
-        <v>127.4262187632209</v>
+        <v>127.426218763221</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.8228165594197</v>
+        <v>138.8228165594198</v>
       </c>
     </row>
     <row r="36">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406148</v>
+        <v>33.52325249406159</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086660929</v>
+        <v>7.344331086661043</v>
       </c>
       <c r="W37" t="n">
-        <v>32.51121715727419</v>
+        <v>32.5112171572743</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C38" t="n">
-        <v>127.33080077002</v>
+        <v>127.3308007700201</v>
       </c>
       <c r="D38" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E38" t="n">
-        <v>140.0542423844535</v>
+        <v>140.0542423844536</v>
       </c>
       <c r="F38" t="n">
         <v>159.2260584724307</v>
@@ -3518,7 +3518,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H38" t="n">
-        <v>73.9108205643895</v>
+        <v>73.91082056438954</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534813</v>
+        <v>1.51537796353487</v>
       </c>
       <c r="V38" t="n">
-        <v>82.82586105251738</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W38" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X38" t="n">
-        <v>127.4262187632209</v>
+        <v>127.426218763221</v>
       </c>
       <c r="Y38" t="n">
         <v>138.8228165594197</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406148</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086660929</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W40" t="n">
-        <v>32.51121715727419</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438955</v>
+        <v>73.91082056438954</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.51537796353486</v>
+        <v>1.51537796353487</v>
       </c>
       <c r="V41" t="n">
         <v>82.82586105251744</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>139.3194838123383</v>
+        <v>139.3194838123384</v>
       </c>
       <c r="C44" t="n">
         <v>127.3308007700201</v>
       </c>
       <c r="D44" t="n">
-        <v>118.312104814548</v>
+        <v>118.3121048145481</v>
       </c>
       <c r="E44" t="n">
         <v>140.0542423844536</v>
       </c>
       <c r="F44" t="n">
-        <v>159.2260584724307</v>
+        <v>159.2260584724308</v>
       </c>
       <c r="G44" t="n">
-        <v>160.6907682559732</v>
+        <v>160.6907682559733</v>
       </c>
       <c r="H44" t="n">
-        <v>73.91082056438955</v>
+        <v>73.91082056438961</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.51537796353486</v>
+        <v>1.515377963534927</v>
       </c>
       <c r="V44" t="n">
-        <v>82.82586105251744</v>
+        <v>82.8258610525175</v>
       </c>
       <c r="W44" t="n">
-        <v>108.1259605304743</v>
+        <v>108.1259605304744</v>
       </c>
       <c r="X44" t="n">
         <v>127.426218763221</v>
       </c>
       <c r="Y44" t="n">
-        <v>138.8228165594197</v>
+        <v>138.8228165594198</v>
       </c>
     </row>
     <row r="45">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406159</v>
       </c>
       <c r="V46" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086661043</v>
       </c>
       <c r="W46" t="n">
-        <v>32.51121715727425</v>
+        <v>32.5112171572743</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>246.2852252635976</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="C11" t="n">
-        <v>246.2852252635976</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="D11" t="n">
-        <v>246.2852252635976</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="E11" t="n">
-        <v>143.4817337755849</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="F11" t="n">
-        <v>143.4817337755849</v>
+        <v>249.1688016665959</v>
       </c>
       <c r="G11" t="n">
-        <v>10.52979365736316</v>
+        <v>116.2168615483743</v>
       </c>
       <c r="H11" t="n">
         <v>10.52979365736316</v>
       </c>
       <c r="I11" t="n">
-        <v>10.52979365736316</v>
+        <v>76.89870416677088</v>
       </c>
       <c r="J11" t="n">
-        <v>10.52979365736316</v>
+        <v>167.5353311136733</v>
       </c>
       <c r="K11" t="n">
-        <v>10.52979365736316</v>
+        <v>167.5353311136733</v>
       </c>
       <c r="L11" t="n">
-        <v>10.52979365736316</v>
+        <v>268.9568870089095</v>
       </c>
       <c r="M11" t="n">
-        <v>109.321844997654</v>
+        <v>382.9876947475781</v>
       </c>
       <c r="N11" t="n">
-        <v>109.321844997654</v>
+        <v>382.9876947475781</v>
       </c>
       <c r="O11" t="n">
-        <v>220.2575006123964</v>
+        <v>382.9876947475781</v>
       </c>
       <c r="P11" t="n">
-        <v>318.8285109267645</v>
+        <v>481.5587050619462</v>
       </c>
       <c r="Q11" t="n">
-        <v>407.9679878302226</v>
+        <v>481.5587050619462</v>
       </c>
       <c r="R11" t="n">
-        <v>481.5587050619463</v>
+        <v>481.5587050619462</v>
       </c>
       <c r="S11" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="T11" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="U11" t="n">
         <v>493.9293246749797</v>
       </c>
       <c r="V11" t="n">
-        <v>379.2371653818193</v>
+        <v>379.2371653818192</v>
       </c>
       <c r="W11" t="n">
-        <v>379.2371653818193</v>
+        <v>379.2371653818192</v>
       </c>
       <c r="X11" t="n">
-        <v>379.2371653818193</v>
+        <v>379.2371653818192</v>
       </c>
       <c r="Y11" t="n">
-        <v>246.2852252635976</v>
+        <v>379.2371653818192</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="D12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="E12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="F12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="G12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="H12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="I12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="J12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="K12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="L12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="M12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="N12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="O12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="P12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="R12" t="n">
         <v>35.66705535392281</v>
@@ -5154,16 +5154,16 @@
         <v>35.66705535392281</v>
       </c>
       <c r="V12" t="n">
-        <v>29.55854761315495</v>
+        <v>29.55854761315494</v>
       </c>
       <c r="W12" t="n">
         <v>10.52979365736316</v>
       </c>
       <c r="X12" t="n">
-        <v>10.52979365736316</v>
+        <v>34.41495482495093</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
     </row>
     <row r="13">
@@ -5194,25 +5194,25 @@
         <v>10.52979365736316</v>
       </c>
       <c r="I13" t="n">
-        <v>10.52979365736316</v>
+        <v>93.31744142469483</v>
       </c>
       <c r="J13" t="n">
-        <v>10.52979365736316</v>
+        <v>93.31744142469483</v>
       </c>
       <c r="K13" t="n">
-        <v>66.38269690373076</v>
+        <v>93.31744142469483</v>
       </c>
       <c r="L13" t="n">
-        <v>196.6888934135998</v>
+        <v>93.31744142469483</v>
       </c>
       <c r="M13" t="n">
-        <v>196.6888934135998</v>
+        <v>93.31744142469483</v>
       </c>
       <c r="N13" t="n">
-        <v>196.6888934135998</v>
+        <v>93.31744142469483</v>
       </c>
       <c r="O13" t="n">
-        <v>196.6888934135998</v>
+        <v>93.31744142469483</v>
       </c>
       <c r="P13" t="n">
         <v>196.6888934135998</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.893643338554</v>
+        <v>143.4817337755848</v>
       </c>
       <c r="C14" t="n">
-        <v>145.893643338554</v>
+        <v>143.4817337755848</v>
       </c>
       <c r="D14" t="n">
-        <v>12.94170322033226</v>
+        <v>143.4817337755848</v>
       </c>
       <c r="E14" t="n">
-        <v>12.94170322033226</v>
+        <v>143.4817337755848</v>
       </c>
       <c r="F14" t="n">
-        <v>12.94170322033226</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="G14" t="n">
-        <v>12.94170322033226</v>
+        <v>10.52979365736316</v>
       </c>
       <c r="H14" t="n">
         <v>10.52979365736316</v>
       </c>
       <c r="I14" t="n">
-        <v>76.89870416677087</v>
+        <v>76.89870416677088</v>
       </c>
       <c r="J14" t="n">
-        <v>188.504107315023</v>
+        <v>188.5041073150231</v>
       </c>
       <c r="K14" t="n">
-        <v>288.3392602935576</v>
+        <v>188.5041073150231</v>
       </c>
       <c r="L14" t="n">
-        <v>288.3392602935576</v>
+        <v>188.5041073150231</v>
       </c>
       <c r="M14" t="n">
-        <v>288.3392602935576</v>
+        <v>188.5041073150231</v>
       </c>
       <c r="N14" t="n">
-        <v>288.3392602935576</v>
+        <v>293.84821784412</v>
       </c>
       <c r="O14" t="n">
-        <v>399.2749159082999</v>
+        <v>293.84821784412</v>
       </c>
       <c r="P14" t="n">
-        <v>497.845926222668</v>
+        <v>392.4192281584881</v>
       </c>
       <c r="Q14" t="n">
-        <v>497.845926222668</v>
+        <v>481.5587050619462</v>
       </c>
       <c r="R14" t="n">
-        <v>497.845926222668</v>
+        <v>481.5587050619462</v>
       </c>
       <c r="S14" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="T14" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="U14" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="V14" t="n">
-        <v>411.7975235749973</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="W14" t="n">
-        <v>278.8455834567757</v>
+        <v>393.537742749936</v>
       </c>
       <c r="X14" t="n">
-        <v>278.8455834567757</v>
+        <v>276.4336738938065</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.893643338554</v>
+        <v>276.4336738938065</v>
       </c>
     </row>
     <row r="15">
@@ -5382,7 +5382,7 @@
         <v>10.52979365736316</v>
       </c>
       <c r="S15" t="n">
-        <v>10.52979365736316</v>
+        <v>35.66705535392281</v>
       </c>
       <c r="T15" t="n">
         <v>35.66705535392281</v>
@@ -5391,7 +5391,7 @@
         <v>35.66705535392281</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315495</v>
+        <v>29.55854761315494</v>
       </c>
       <c r="W15" t="n">
         <v>10.52979365736316</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52979365736316</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52979365736316</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="D16" t="n">
-        <v>78.36763238541471</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="E16" t="n">
-        <v>147.2471987562446</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="F16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="G16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="H16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="I16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="J16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="K16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="L16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="M16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="N16" t="n">
-        <v>196.6888934135998</v>
+        <v>10.77673573607523</v>
       </c>
       <c r="O16" t="n">
-        <v>196.6888934135998</v>
+        <v>116.0156803726531</v>
       </c>
       <c r="P16" t="n">
-        <v>196.6888934135998</v>
+        <v>116.0156803726531</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.6888934135998</v>
+        <v>116.0156803726531</v>
       </c>
       <c r="R16" t="n">
         <v>196.6888934135998</v>
@@ -5479,7 +5479,7 @@
         <v>10.52979365736316</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52979365736316</v>
+        <v>10.77673573607523</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>323.6075332018791</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348597</v>
+        <v>274.9232925348599</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622566</v>
+        <v>235.3488457622567</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685367</v>
+        <v>173.8126438685368</v>
       </c>
       <c r="F17" t="n">
         <v>92.91097117888066</v>
@@ -5507,58 +5507,58 @@
         <v>10.52979365736316</v>
       </c>
       <c r="H17" t="n">
-        <v>10.52979365736316</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="I17" t="n">
-        <v>140.8359901672322</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="J17" t="n">
-        <v>140.8359901672322</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="K17" t="n">
-        <v>140.8359901672322</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="L17" t="n">
-        <v>140.8359901672322</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="M17" t="n">
-        <v>140.8359901672322</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="N17" t="n">
-        <v>140.8359901672322</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="O17" t="n">
-        <v>210.5873906918056</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="P17" t="n">
-        <v>210.5873906918056</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.5873906918056</v>
+        <v>406.6187393127988</v>
       </c>
       <c r="R17" t="n">
-        <v>210.5873906918056</v>
+        <v>417.7354315023492</v>
       </c>
       <c r="S17" t="n">
-        <v>340.8935872016747</v>
+        <v>417.7354315023492</v>
       </c>
       <c r="T17" t="n">
-        <v>449.6478385674832</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="U17" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="V17" t="n">
-        <v>522.7599267642728</v>
+        <v>522.7599267642727</v>
       </c>
       <c r="W17" t="n">
-        <v>493.4745146220471</v>
+        <v>493.474514622047</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437137</v>
+        <v>444.6938921437135</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.401554719725</v>
+        <v>384.4015547197248</v>
       </c>
     </row>
     <row r="18">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018788</v>
+        <v>323.6075332018787</v>
       </c>
       <c r="C20" t="n">
         <v>274.9232925348593</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622562</v>
+        <v>235.3488457622561</v>
       </c>
       <c r="E20" t="n">
         <v>173.8126438685363</v>
@@ -5744,58 +5744,58 @@
         <v>10.52979365736316</v>
       </c>
       <c r="H20" t="n">
-        <v>10.52979365736316</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="I20" t="n">
-        <v>10.52979365736316</v>
+        <v>15.70014978319173</v>
       </c>
       <c r="J20" t="n">
-        <v>10.52979365736316</v>
+        <v>146.0063462930608</v>
       </c>
       <c r="K20" t="n">
-        <v>10.52979365736316</v>
+        <v>276.3125428029298</v>
       </c>
       <c r="L20" t="n">
-        <v>10.52979365736316</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="M20" t="n">
-        <v>10.52979365736316</v>
+        <v>396.1834863582887</v>
       </c>
       <c r="N20" t="n">
-        <v>10.52979365736316</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="O20" t="n">
-        <v>10.52979365736316</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="P20" t="n">
-        <v>10.52979365736316</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.28119418193654</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="R20" t="n">
-        <v>210.5873906918056</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="S20" t="n">
-        <v>340.8935872016747</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="T20" t="n">
-        <v>449.6478385674832</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="U20" t="n">
-        <v>526.4896828681578</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="V20" t="n">
-        <v>522.7599267642724</v>
+        <v>522.7599267642723</v>
       </c>
       <c r="W20" t="n">
-        <v>493.4745146220467</v>
+        <v>493.4745146220466</v>
       </c>
       <c r="X20" t="n">
-        <v>444.6938921437134</v>
+        <v>444.6938921437132</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.4015547197246</v>
+        <v>384.4015547197245</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.6075332018793</v>
+        <v>323.6075332018785</v>
       </c>
       <c r="C23" t="n">
-        <v>274.92329253486</v>
+        <v>274.9232925348591</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3488457622569</v>
+        <v>235.3488457622559</v>
       </c>
       <c r="E23" t="n">
-        <v>173.812643868537</v>
+        <v>173.8126438685363</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888066</v>
+        <v>92.9109711788807</v>
       </c>
       <c r="G23" t="n">
         <v>10.52979365736316</v>
       </c>
       <c r="H23" t="n">
-        <v>10.52979365736316</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="I23" t="n">
-        <v>10.52979365736316</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="J23" t="n">
-        <v>10.52979365736316</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="K23" t="n">
-        <v>58.7292490378764</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="L23" t="n">
-        <v>189.0354455477455</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="M23" t="n">
-        <v>319.3416420576145</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="N23" t="n">
-        <v>449.6478385674836</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="O23" t="n">
-        <v>449.6478385674836</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="P23" t="n">
-        <v>449.6478385674836</v>
+        <v>15.70014978319167</v>
       </c>
       <c r="Q23" t="n">
-        <v>449.6478385674836</v>
+        <v>80.28119418193648</v>
       </c>
       <c r="R23" t="n">
-        <v>449.6478385674836</v>
+        <v>210.5873906918055</v>
       </c>
       <c r="S23" t="n">
-        <v>449.6478385674836</v>
+        <v>340.8935872016746</v>
       </c>
       <c r="T23" t="n">
-        <v>449.6478385674836</v>
+        <v>449.6478385674831</v>
       </c>
       <c r="U23" t="n">
-        <v>526.4896828681583</v>
+        <v>526.4896828681577</v>
       </c>
       <c r="V23" t="n">
-        <v>522.7599267642729</v>
+        <v>522.7599267642722</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220473</v>
+        <v>493.4745146220466</v>
       </c>
       <c r="X23" t="n">
-        <v>444.6938921437139</v>
+        <v>444.6938921437134</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197252</v>
+        <v>384.4015547197245</v>
       </c>
     </row>
     <row r="24">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929851</v>
+        <v>908.0896616929842</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132242</v>
+        <v>746.5063649132235</v>
       </c>
       <c r="E26" t="n">
-        <v>562.9613130123465</v>
+        <v>562.961313012346</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155324</v>
+        <v>360.0507903155319</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868571</v>
       </c>
       <c r="H26" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I26" t="n">
-        <v>94.46953606116438</v>
+        <v>94.46953606116446</v>
       </c>
       <c r="J26" t="n">
-        <v>412.8756604096686</v>
+        <v>412.8756604096689</v>
       </c>
       <c r="K26" t="n">
-        <v>712.022358141131</v>
+        <v>501.8841908619968</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.747053105929</v>
+        <v>592.4791242310263</v>
       </c>
       <c r="M26" t="n">
-        <v>1296.951238318391</v>
+        <v>1074.203819195824</v>
       </c>
       <c r="N26" t="n">
-        <v>1583.327678658703</v>
+        <v>1179.476600563616</v>
       </c>
       <c r="O26" t="n">
-        <v>1683.436711747239</v>
+        <v>1323.560759850605</v>
       </c>
       <c r="P26" t="n">
-        <v>1771.1810995354</v>
+        <v>1805.285454815403</v>
       </c>
       <c r="Q26" t="n">
-        <v>1849.493953912651</v>
+        <v>1883.598309192654</v>
       </c>
       <c r="R26" t="n">
-        <v>1912.258048618168</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="S26" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898171</v>
       </c>
       <c r="T26" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080289</v>
       </c>
       <c r="U26" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069228</v>
       </c>
       <c r="V26" t="n">
-        <v>1765.970545958187</v>
+        <v>1765.970545958185</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808803</v>
+        <v>1614.676283808802</v>
       </c>
       <c r="X26" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y26" t="n">
-        <v>1261.585623892166</v>
+        <v>1261.585623892164</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M27" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="O27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166283</v>
       </c>
       <c r="U27" t="n">
-        <v>86.15740341028844</v>
+        <v>86.15740341028817</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163792</v>
+        <v>69.00244885163777</v>
       </c>
       <c r="W27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="X27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K28" t="n">
-        <v>38.92724807796346</v>
+        <v>96.70622891109244</v>
       </c>
       <c r="L28" t="n">
-        <v>38.92724807796346</v>
+        <v>96.70622891109244</v>
       </c>
       <c r="M28" t="n">
-        <v>291.1130727383209</v>
+        <v>96.70622891109244</v>
       </c>
       <c r="N28" t="n">
-        <v>291.1130727383209</v>
+        <v>103.2166507788776</v>
       </c>
       <c r="O28" t="n">
-        <v>291.1130727383209</v>
+        <v>103.2166507788776</v>
       </c>
       <c r="P28" t="n">
-        <v>291.1130727383209</v>
+        <v>103.2166507788776</v>
       </c>
       <c r="Q28" t="n">
-        <v>291.1130727383209</v>
+        <v>289.9068133957385</v>
       </c>
       <c r="R28" t="n">
-        <v>291.1130727383209</v>
+        <v>289.9068133957385</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="T28" t="n">
-        <v>270.081896347959</v>
+        <v>270.0818963479584</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1439049424268</v>
+        <v>194.1439049424264</v>
       </c>
       <c r="V28" t="n">
-        <v>144.649268493865</v>
+        <v>144.6492684938646</v>
       </c>
       <c r="W28" t="n">
-        <v>69.73353500427959</v>
+        <v>69.73353500427933</v>
       </c>
       <c r="X28" t="n">
-        <v>49.72173889267086</v>
+        <v>49.72173889267071</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C29" t="n">
-        <v>908.0896616929849</v>
+        <v>908.0896616929845</v>
       </c>
       <c r="D29" t="n">
-        <v>746.5063649132239</v>
+        <v>746.5063649132236</v>
       </c>
       <c r="E29" t="n">
-        <v>562.9613130123463</v>
+        <v>562.961313012346</v>
       </c>
       <c r="F29" t="n">
-        <v>360.0507903155321</v>
+        <v>360.0507903155319</v>
       </c>
       <c r="G29" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868571</v>
       </c>
       <c r="H29" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116438</v>
+        <v>94.46953606116449</v>
       </c>
       <c r="J29" t="n">
-        <v>195.2483166832097</v>
+        <v>195.24831668321</v>
       </c>
       <c r="K29" t="n">
-        <v>676.9730116480075</v>
+        <v>676.9730116480076</v>
       </c>
       <c r="L29" t="n">
-        <v>767.5679450170369</v>
+        <v>1158.697706612805</v>
       </c>
       <c r="M29" t="n">
-        <v>870.7721302294987</v>
+        <v>1261.901891825267</v>
       </c>
       <c r="N29" t="n">
-        <v>1335.531881172691</v>
+        <v>1367.17467319306</v>
       </c>
       <c r="O29" t="n">
-        <v>1476.318753030495</v>
+        <v>1467.283706281595</v>
       </c>
       <c r="P29" t="n">
-        <v>1771.1810995354</v>
+        <v>1555.028094069757</v>
       </c>
       <c r="Q29" t="n">
-        <v>1849.493953912651</v>
+        <v>1764.916921536122</v>
       </c>
       <c r="R29" t="n">
         <v>1912.258048618168</v>
       </c>
       <c r="S29" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898172</v>
       </c>
       <c r="T29" t="n">
         <v>1935.31595708029</v>
       </c>
       <c r="U29" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069229</v>
       </c>
       <c r="V29" t="n">
-        <v>1765.970545958187</v>
+        <v>1765.970545958186</v>
       </c>
       <c r="W29" t="n">
         <v>1614.676283808803</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.585623892166</v>
+        <v>1261.585623892165</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="C30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="D30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="E30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="F30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="G30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="H30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="I30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="J30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="K30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="L30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="M30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="N30" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166284</v>
       </c>
       <c r="O30" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166284</v>
       </c>
       <c r="P30" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166284</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.92724807796346</v>
+        <v>93.39486775166284</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166284</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166284</v>
       </c>
       <c r="T30" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166284</v>
       </c>
       <c r="U30" t="n">
-        <v>86.15740341028844</v>
+        <v>86.15740341028818</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163792</v>
+        <v>69.00244885163778</v>
       </c>
       <c r="W30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="X30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="C31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="D31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="E31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="F31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="G31" t="n">
-        <v>46.87010440487536</v>
+        <v>80.61405839235329</v>
       </c>
       <c r="H31" t="n">
-        <v>99.5559494270117</v>
+        <v>80.61405839235329</v>
       </c>
       <c r="I31" t="n">
-        <v>171.5169746681366</v>
+        <v>80.61405839235329</v>
       </c>
       <c r="J31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="K31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="L31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="M31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="N31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="O31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="P31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="Q31" t="n">
-        <v>291.1130727383209</v>
+        <v>243.4999990448826</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="S31" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383202</v>
       </c>
       <c r="T31" t="n">
-        <v>270.081896347959</v>
+        <v>270.0818963479584</v>
       </c>
       <c r="U31" t="n">
-        <v>194.1439049424268</v>
+        <v>194.1439049424264</v>
       </c>
       <c r="V31" t="n">
-        <v>144.649268493865</v>
+        <v>144.6492684938646</v>
       </c>
       <c r="W31" t="n">
-        <v>69.73353500427959</v>
+        <v>69.73353500427935</v>
       </c>
       <c r="X31" t="n">
-        <v>49.72173889267086</v>
+        <v>49.72173889267074</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929848</v>
+        <v>908.0896616929842</v>
       </c>
       <c r="D32" t="n">
-        <v>746.5063649132239</v>
+        <v>746.5063649132233</v>
       </c>
       <c r="E32" t="n">
-        <v>562.9613130123464</v>
+        <v>562.9613130123457</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0507903155321</v>
+        <v>360.0507903155317</v>
       </c>
       <c r="G32" t="n">
         <v>155.6607627868572</v>
       </c>
       <c r="H32" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="I32" t="n">
-        <v>94.46953606116438</v>
+        <v>94.46953606116443</v>
       </c>
       <c r="J32" t="n">
-        <v>412.8756604096686</v>
+        <v>412.8756604096689</v>
       </c>
       <c r="K32" t="n">
-        <v>713.8341428693993</v>
+        <v>544.8136914773306</v>
       </c>
       <c r="L32" t="n">
-        <v>804.4290762384287</v>
+        <v>635.40862484636</v>
       </c>
       <c r="M32" t="n">
-        <v>907.6332614508905</v>
+        <v>738.6128100588219</v>
       </c>
       <c r="N32" t="n">
-        <v>1012.906042818683</v>
+        <v>843.8855914266144</v>
       </c>
       <c r="O32" t="n">
-        <v>1113.015075907218</v>
+        <v>1325.610286391412</v>
       </c>
       <c r="P32" t="n">
-        <v>1497.931706556102</v>
+        <v>1413.354674179574</v>
       </c>
       <c r="Q32" t="n">
-        <v>1849.493953912651</v>
+        <v>1764.916921536122</v>
       </c>
       <c r="R32" t="n">
         <v>1912.258048618168</v>
       </c>
       <c r="S32" t="n">
-        <v>1946.362403898173</v>
+        <v>1946.362403898172</v>
       </c>
       <c r="T32" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080289</v>
       </c>
       <c r="U32" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069229</v>
       </c>
       <c r="V32" t="n">
         <v>1765.970545958186</v>
@@ -6740,10 +6740,10 @@
         <v>1614.676283808803</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.585623892166</v>
+        <v>1261.585623892165</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="C33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="D33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="E33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="F33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="G33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="H33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="I33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="J33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="K33" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="L33" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="M33" t="n">
-        <v>93.39486775166321</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="N33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="O33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="P33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="R33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39486775166321</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028844</v>
+        <v>86.1574034102883</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163792</v>
+        <v>69.00244885163784</v>
       </c>
       <c r="W33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="X33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
       <c r="C34" t="n">
-        <v>79.72361503341082</v>
+        <v>79.72361503341085</v>
       </c>
       <c r="D34" t="n">
-        <v>121.9895301764154</v>
+        <v>79.72361503341085</v>
       </c>
       <c r="E34" t="n">
-        <v>121.9895301764154</v>
+        <v>137.776558878034</v>
       </c>
       <c r="F34" t="n">
-        <v>121.9895301764154</v>
+        <v>137.776558878034</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6763404908052</v>
+        <v>137.776558878034</v>
       </c>
       <c r="H34" t="n">
-        <v>163.6763404908052</v>
+        <v>137.776558878034</v>
       </c>
       <c r="I34" t="n">
-        <v>163.6763404908052</v>
+        <v>137.776558878034</v>
       </c>
       <c r="J34" t="n">
-        <v>163.6763404908052</v>
+        <v>137.776558878034</v>
       </c>
       <c r="K34" t="n">
-        <v>291.1130727383209</v>
+        <v>137.776558878034</v>
       </c>
       <c r="L34" t="n">
-        <v>291.1130727383209</v>
+        <v>137.776558878034</v>
       </c>
       <c r="M34" t="n">
-        <v>291.1130727383209</v>
+        <v>137.776558878034</v>
       </c>
       <c r="N34" t="n">
-        <v>291.1130727383209</v>
+        <v>137.776558878034</v>
       </c>
       <c r="O34" t="n">
-        <v>291.1130727383209</v>
+        <v>137.776558878034</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383209</v>
+        <v>137.776558878034</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383205</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383205</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383209</v>
+        <v>291.1130727383205</v>
       </c>
       <c r="T34" t="n">
-        <v>270.081896347959</v>
+        <v>270.0818963479587</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424268</v>
+        <v>194.1439049424266</v>
       </c>
       <c r="V34" t="n">
-        <v>144.649268493865</v>
+        <v>144.6492684938648</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427959</v>
+        <v>69.73353500427946</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267086</v>
+        <v>49.72173889267079</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.92724807796346</v>
+        <v>38.92724807796345</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133425</v>
+        <v>815.7962375133422</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385748</v>
+        <v>687.1792670385744</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582234</v>
+        <v>567.6720904582231</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567551</v>
+        <v>426.2031587567548</v>
       </c>
       <c r="F35" t="n">
-        <v>265.3687562593503</v>
+        <v>265.36875625935</v>
       </c>
       <c r="G35" t="n">
-        <v>103.0548489300845</v>
+        <v>103.0548489300848</v>
       </c>
       <c r="H35" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I35" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J35" t="n">
-        <v>267.1961338407289</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004978</v>
+        <v>397.4434697004982</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769683</v>
+        <v>529.2772084769687</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968713</v>
+        <v>673.7201990968715</v>
       </c>
       <c r="N35" t="n">
-        <v>820.2317858721049</v>
+        <v>820.231785872105</v>
       </c>
       <c r="O35" t="n">
         <v>961.5796243680817</v>
@@ -6962,13 +6962,13 @@
         <v>1314.117377461335</v>
       </c>
       <c r="S35" t="n">
-        <v>1389.460538148781</v>
+        <v>1389.46053814878</v>
       </c>
       <c r="T35" t="n">
         <v>1419.872721030015</v>
       </c>
       <c r="U35" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218363</v>
       </c>
       <c r="V35" t="n">
         <v>1334.67955030673</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992871</v>
+        <v>68.65558395992893</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077624</v>
+        <v>61.23706771077636</v>
       </c>
       <c r="W37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133427</v>
+        <v>815.7962375133429</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385752</v>
       </c>
       <c r="D38" t="n">
         <v>567.6720904582236</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567554</v>
+        <v>426.2031587567553</v>
       </c>
       <c r="F38" t="n">
-        <v>265.3687562593507</v>
+        <v>265.3687562593506</v>
       </c>
       <c r="G38" t="n">
-        <v>103.0548489300846</v>
+        <v>103.0548489300847</v>
       </c>
       <c r="H38" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I38" t="n">
         <v>125.1785478112424</v>
@@ -7178,19 +7178,19 @@
         <v>397.4434697004978</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769683</v>
+        <v>529.2772084769689</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968713</v>
+        <v>673.7201990968719</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721049</v>
+        <v>820.2317858721054</v>
       </c>
       <c r="O38" t="n">
-        <v>961.5796243680816</v>
+        <v>961.5796243680821</v>
       </c>
       <c r="P38" t="n">
-        <v>1090.562817563684</v>
+        <v>1090.562817563685</v>
       </c>
       <c r="Q38" t="n">
         <v>1210.114477348377</v>
@@ -7199,7 +7199,7 @@
         <v>1314.117377461335</v>
       </c>
       <c r="S38" t="n">
-        <v>1389.46053814878</v>
+        <v>1389.460538148781</v>
       </c>
       <c r="T38" t="n">
         <v>1419.872721030015</v>
@@ -7217,7 +7217,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.522988838937</v>
+        <v>956.5229888389372</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660514</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660514</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992871</v>
+        <v>68.65558395992882</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077624</v>
+        <v>61.2370677107763</v>
       </c>
       <c r="W40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133421</v>
+        <v>815.7962375133428</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385744</v>
+        <v>687.1792670385751</v>
       </c>
       <c r="D41" t="n">
-        <v>567.6720904582228</v>
+        <v>567.6720904582235</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567544</v>
+        <v>426.2031587567552</v>
       </c>
       <c r="F41" t="n">
-        <v>265.36875625935</v>
+        <v>265.3687562593504</v>
       </c>
       <c r="G41" t="n">
         <v>103.0548489300847</v>
       </c>
       <c r="H41" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112424</v>
       </c>
       <c r="J41" t="n">
-        <v>267.1961338407288</v>
+        <v>267.1961338407289</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004977</v>
+        <v>397.4434697004972</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769681</v>
+        <v>529.2772084769676</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968709</v>
+        <v>673.7201990968706</v>
       </c>
       <c r="N41" t="n">
-        <v>820.2317858721044</v>
+        <v>820.2317858721042</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680811</v>
+        <v>961.5796243680805</v>
       </c>
       <c r="P41" t="n">
         <v>1090.562817563683</v>
       </c>
       <c r="Q41" t="n">
-        <v>1210.114477348377</v>
+        <v>1210.114477348375</v>
       </c>
       <c r="R41" t="n">
-        <v>1314.117377461335</v>
+        <v>1314.117377461333</v>
       </c>
       <c r="S41" t="n">
-        <v>1389.460538148781</v>
+        <v>1389.460538148779</v>
       </c>
       <c r="T41" t="n">
         <v>1419.872721030015</v>
@@ -7445,16 +7445,16 @@
         <v>1418.342036218363</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.67955030673</v>
       </c>
       <c r="W41" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X41" t="n">
         <v>1096.748056070674</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389364</v>
+        <v>956.5229888389371</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C43" t="n">
-        <v>59.05657938054669</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="D43" t="n">
-        <v>59.05657938054669</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="E43" t="n">
-        <v>59.05657938054669</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="F43" t="n">
         <v>102.5174551660516</v>
@@ -7606,13 +7606,13 @@
         <v>61.2370677107763</v>
       </c>
       <c r="W43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.05657938054669</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133417</v>
+        <v>815.7962375133424</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385739</v>
+        <v>687.1792670385746</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582228</v>
+        <v>567.6720904582232</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567543</v>
+        <v>426.2031587567546</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593495</v>
+        <v>265.3687562593498</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300848</v>
       </c>
       <c r="H44" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I44" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J44" t="n">
-        <v>267.1961338407288</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004977</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L44" t="n">
         <v>529.2772084769681</v>
@@ -7661,37 +7661,37 @@
         <v>820.2317858721044</v>
       </c>
       <c r="O44" t="n">
-        <v>961.579624368081</v>
+        <v>961.5796243680811</v>
       </c>
       <c r="P44" t="n">
         <v>1090.562817563683</v>
       </c>
       <c r="Q44" t="n">
-        <v>1210.114477348376</v>
+        <v>1210.114477348377</v>
       </c>
       <c r="R44" t="n">
-        <v>1314.117377461334</v>
+        <v>1314.117377461335</v>
       </c>
       <c r="S44" t="n">
         <v>1389.46053814878</v>
       </c>
       <c r="T44" t="n">
-        <v>1419.872721030014</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U44" t="n">
-        <v>1418.342036218363</v>
+        <v>1418.342036218364</v>
       </c>
       <c r="V44" t="n">
-        <v>1334.679550306729</v>
+        <v>1334.67955030673</v>
       </c>
       <c r="W44" t="n">
-        <v>1225.461408356755</v>
+        <v>1225.461408356756</v>
       </c>
       <c r="X44" t="n">
-        <v>1096.748056070673</v>
+        <v>1096.748056070674</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389359</v>
+        <v>956.5229888389367</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39745442060028</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="R46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="S46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="T46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660518</v>
       </c>
       <c r="U46" t="n">
-        <v>68.6555839599288</v>
+        <v>68.65558395992893</v>
       </c>
       <c r="V46" t="n">
-        <v>61.23706771077629</v>
+        <v>61.23706771077636</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39745442060028</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
   </sheetData>
@@ -9875,22 +9875,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>395.080567268453</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>382.3439492447833</v>
       </c>
       <c r="N26" t="n">
-        <v>182.9329888611316</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>197.6142743124256</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>397.9599062390263</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K27" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>96.52986688537246</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>80.40428934589778</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>226.9896749150042</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>82.78808566083805</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>86.48380385827531</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>396.6829944570404</v>
+        <v>396.6829944570402</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>568.5510017355793</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>41.08872602956387</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>132.9050233223375</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>96.52986688537246</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>32.19488476077245</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10276,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>214.0908606135383</v>
+        <v>43.36313193468069</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>412.2051189086955</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,34 +10422,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K33" t="n">
-        <v>126.5313027642112</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M33" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N33" t="n">
-        <v>41.51206923517107</v>
+        <v>96.52986688537263</v>
       </c>
       <c r="O33" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P33" t="n">
-        <v>60.98136935834783</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,16 +10507,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>51.25529159150682</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.0388604600498</v>
+        <v>41.27118038197862</v>
       </c>
       <c r="C11" t="n">
         <v>158.0501774177315</v>
@@ -23264,16 +23264,16 @@
         <v>149.0314814622595</v>
       </c>
       <c r="E11" t="n">
-        <v>68.99816245903244</v>
+        <v>170.773619032165</v>
       </c>
       <c r="F11" t="n">
         <v>189.9454351201422</v>
       </c>
       <c r="G11" t="n">
-        <v>59.78772418664522</v>
+        <v>59.78772418664526</v>
       </c>
       <c r="H11" t="n">
-        <v>104.630197212101</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>158.1455954109324</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.9197724900917</v>
+        <v>169.5421932071312</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.0388604600498</v>
+        <v>38.41643974301033</v>
       </c>
       <c r="C14" t="n">
         <v>158.0501774177315</v>
       </c>
       <c r="D14" t="n">
-        <v>17.40906074522002</v>
+        <v>149.0314814622595</v>
       </c>
       <c r="E14" t="n">
         <v>170.773619032165</v>
       </c>
       <c r="F14" t="n">
-        <v>189.9454351201422</v>
+        <v>58.32301440310275</v>
       </c>
       <c r="G14" t="n">
         <v>191.4101449036847</v>
       </c>
       <c r="H14" t="n">
-        <v>102.2424067447616</v>
+        <v>104.630197212101</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.23475461124631</v>
+        <v>32.2347546112463</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W14" t="n">
-        <v>7.222916461146326</v>
+        <v>7.222916461146355</v>
       </c>
       <c r="X14" t="n">
-        <v>158.1455954109324</v>
+        <v>42.21256724336416</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.9197724900917</v>
+        <v>169.5421932071312</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.081979116359435e-13</v>
+        <v>-1.816324868286756e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172322.2420891434</v>
+        <v>172322.2420891435</v>
       </c>
       <c r="C2" t="n">
         <v>172322.2420891434</v>
       </c>
       <c r="D2" t="n">
-        <v>172322.2420891433</v>
+        <v>172322.2420891434</v>
       </c>
       <c r="E2" t="n">
         <v>150589.5295769474</v>
@@ -26335,22 +26335,22 @@
         <v>172715.4136111909</v>
       </c>
       <c r="J2" t="n">
-        <v>172715.4136111911</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="K2" t="n">
-        <v>172715.4136111911</v>
+        <v>172715.413611191</v>
       </c>
       <c r="L2" t="n">
         <v>172715.413611191</v>
       </c>
       <c r="M2" t="n">
+        <v>172715.4136111908</v>
+      </c>
+      <c r="N2" t="n">
         <v>172715.4136111909</v>
       </c>
-      <c r="N2" t="n">
-        <v>172715.4136111908</v>
-      </c>
       <c r="O2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="P2" t="n">
         <v>172715.4136111908</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308990.6514115118</v>
+        <v>308990.6514115119</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.2233259059</v>
+        <v>87882.22332590586</v>
       </c>
       <c r="M3" t="n">
-        <v>33324.28719793227</v>
+        <v>33324.28719793213</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.38572456234</v>
+        <v>79420.3857245625</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>341966.2726892944</v>
       </c>
       <c r="G4" t="n">
-        <v>398022.0726506228</v>
+        <v>398022.0726506227</v>
       </c>
       <c r="H4" t="n">
         <v>398022.0726506228</v>
@@ -26448,13 +26448,13 @@
         <v>405719.4410900336</v>
       </c>
       <c r="M4" t="n">
-        <v>398950.3342181895</v>
+        <v>398950.3342181894</v>
       </c>
       <c r="N4" t="n">
         <v>398950.3342181895</v>
       </c>
       <c r="O4" t="n">
-        <v>398950.3342181895</v>
+        <v>398950.3342181894</v>
       </c>
       <c r="P4" t="n">
         <v>398950.3342181894</v>
@@ -26482,16 +26482,16 @@
         <v>29044.09759212584</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310782</v>
+        <v>38279.31088310781</v>
       </c>
       <c r="H5" t="n">
-        <v>38279.31088310782</v>
+        <v>38279.31088310781</v>
       </c>
       <c r="I5" t="n">
-        <v>38279.31088310782</v>
+        <v>38279.31088310781</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162481</v>
       </c>
       <c r="K5" t="n">
         <v>49706.78585162482</v>
@@ -26500,7 +26500,7 @@
         <v>49706.78585162482</v>
       </c>
       <c r="M5" t="n">
-        <v>45206.06704758253</v>
+        <v>45206.06704758252</v>
       </c>
       <c r="N5" t="n">
         <v>45206.06704758252</v>
@@ -26509,7 +26509,7 @@
         <v>45206.06704758252</v>
       </c>
       <c r="P5" t="n">
-        <v>45206.0670475825</v>
+        <v>45206.06704758252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298442.5231222908</v>
+        <v>-298446.8916947579</v>
       </c>
       <c r="C6" t="n">
-        <v>-298442.5231222907</v>
+        <v>-298446.8916947579</v>
       </c>
       <c r="D6" t="n">
-        <v>-298442.5231222908</v>
+        <v>-298446.8916947579</v>
       </c>
       <c r="E6" t="n">
-        <v>-529411.4921159847</v>
+        <v>-529657.3352719207</v>
       </c>
       <c r="F6" t="n">
-        <v>-220420.8407044728</v>
+        <v>-220666.6838604088</v>
       </c>
       <c r="G6" t="n">
-        <v>-351468.1932484456</v>
+        <v>-351468.1932484455</v>
       </c>
       <c r="H6" t="n">
         <v>-263585.9699225397</v>
@@ -26546,13 +26546,13 @@
         <v>-455006.4936103241</v>
       </c>
       <c r="K6" t="n">
-        <v>-282710.8133304673</v>
+        <v>-282710.8133304674</v>
       </c>
       <c r="L6" t="n">
         <v>-370593.0366563733</v>
       </c>
       <c r="M6" t="n">
-        <v>-304765.2748525134</v>
+        <v>-304765.2748525132</v>
       </c>
       <c r="N6" t="n">
         <v>-271440.9876545811</v>
@@ -26561,7 +26561,7 @@
         <v>-350861.3733791435</v>
       </c>
       <c r="P6" t="n">
-        <v>-271440.9876545811</v>
+        <v>-271440.987654581</v>
       </c>
     </row>
   </sheetData>
@@ -26704,22 +26704,22 @@
         <v>329.9170228201716</v>
       </c>
       <c r="I2" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="J2" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K2" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L2" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="M2" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="N2" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="O2" t="n">
         <v>250.7836203105006</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="I4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="J4" t="n">
-        <v>486.5906009745433</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="K4" t="n">
-        <v>486.5906009745432</v>
+        <v>486.5906009745431</v>
       </c>
       <c r="L4" t="n">
-        <v>486.5906009745432</v>
+        <v>486.5906009745431</v>
       </c>
       <c r="M4" t="n">
-        <v>354.9681802575038</v>
+        <v>354.9681802575037</v>
       </c>
       <c r="N4" t="n">
         <v>354.9681802575037</v>
@@ -26829,7 +26829,7 @@
         <v>354.9681802575037</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575035</v>
+        <v>354.9681802575037</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.27548215570297</v>
+        <v>99.27548215570314</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573824</v>
+        <v>109.8527791573823</v>
       </c>
       <c r="M2" t="n">
-        <v>41.65535899741533</v>
+        <v>41.65535899741516</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570292</v>
+        <v>99.27548215570312</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.9681802575038</v>
+        <v>354.9681802575034</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570297</v>
+        <v>99.27548215570314</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,34 +28108,34 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I11" t="n">
-        <v>153.0249401179329</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="J11" t="n">
-        <v>107.3315132100092</v>
+        <v>198.8836616412238</v>
       </c>
       <c r="K11" t="n">
         <v>119.2206547955825</v>
       </c>
       <c r="L11" t="n">
-        <v>117.6182276069951</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="M11" t="n">
-        <v>204.6715604321046</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="N11" t="n">
         <v>102.7921185173354</v>
       </c>
       <c r="O11" t="n">
-        <v>220.0642436627892</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P11" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.0642436627892</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R11" t="n">
-        <v>220.0642436627892</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S11" t="n">
         <v>220.0642436627892</v>
@@ -28190,31 +28190,31 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J12" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K12" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M12" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P12" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R12" t="n">
-        <v>128.1903361638886</v>
+        <v>102.7991627330203</v>
       </c>
       <c r="S12" t="n">
         <v>146.6148367064899</v>
@@ -28232,10 +28232,10 @@
         <v>220.0642436627892</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>191.8608610959794</v>
       </c>
     </row>
     <row r="13">
@@ -28266,16 +28266,16 @@
         <v>155.9102360382001</v>
       </c>
       <c r="I13" t="n">
-        <v>136.4403570291208</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="J13" t="n">
         <v>88.32412184825276</v>
       </c>
       <c r="K13" t="n">
-        <v>136.8213633321277</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L13" t="n">
-        <v>209.9683292225058</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M13" t="n">
         <v>79.93067970396669</v>
@@ -28287,7 +28287,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827531</v>
+        <v>190.8994119278763</v>
       </c>
       <c r="Q13" t="n">
         <v>105.4981853689493</v>
@@ -28351,7 +28351,7 @@
         <v>220.0642436627892</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0642436627892</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L14" t="n">
         <v>117.6182276069951</v>
@@ -28360,22 +28360,22 @@
         <v>104.881609583326</v>
       </c>
       <c r="N14" t="n">
-        <v>102.7921185173354</v>
+        <v>209.2003109709686</v>
       </c>
       <c r="O14" t="n">
-        <v>220.0642436627892</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0243680027304</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="R14" t="n">
         <v>145.7301858529672</v>
       </c>
       <c r="S14" t="n">
-        <v>203.6125051166056</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="T14" t="n">
         <v>220.0642436627892</v>
@@ -28427,37 +28427,37 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J15" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K15" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L15" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M15" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P15" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R15" t="n">
         <v>102.7991627330203</v>
       </c>
       <c r="S15" t="n">
-        <v>146.6148367064899</v>
+        <v>172.0060101373582</v>
       </c>
       <c r="T15" t="n">
-        <v>211.178926504556</v>
+        <v>185.7877530736877</v>
       </c>
       <c r="U15" t="n">
         <v>216.2933510110464</v>
@@ -28488,13 +28488,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>220.0642436627892</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>220.0642436627892</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>200.8969541389809</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>167.0203721066311</v>
@@ -28509,10 +28509,10 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K16" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L16" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M16" t="n">
         <v>79.93067970396669</v>
@@ -28521,16 +28521,16 @@
         <v>71.58137972518441</v>
       </c>
       <c r="O16" t="n">
-        <v>82.78808566083805</v>
+        <v>189.0900499402097</v>
       </c>
       <c r="P16" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q16" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R16" t="n">
-        <v>138.576149682035</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="S16" t="n">
         <v>207.9098175327</v>
@@ -28551,7 +28551,7 @@
         <v>220.0642436627892</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>220.0642436627892</v>
       </c>
     </row>
     <row r="17">
@@ -28579,7 +28579,7 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H17" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I17" t="n">
         <v>284.6473608349723</v>
@@ -28594,31 +28594,31 @@
         <v>117.6182276069951</v>
       </c>
       <c r="M17" t="n">
-        <v>104.881609583326</v>
+        <v>236.5040303003654</v>
       </c>
       <c r="N17" t="n">
         <v>102.7921185173354</v>
       </c>
       <c r="O17" t="n">
-        <v>178.4639859959518</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P17" t="n">
-        <v>120.4975665775689</v>
+        <v>120.4975665775688</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0243680027304</v>
+        <v>261.6467887197698</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529672</v>
+        <v>156.9591678626141</v>
       </c>
       <c r="S17" t="n">
-        <v>306.3018383129483</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T17" t="n">
         <v>329.9170228201716</v>
       </c>
       <c r="U17" t="n">
-        <v>329.9170228201716</v>
+        <v>252.2989982740355</v>
       </c>
       <c r="V17" t="n">
         <v>329.9170228201716</v>
@@ -28664,28 +28664,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J18" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K18" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M18" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P18" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R18" t="n">
         <v>102.7991627330203</v>
@@ -28746,10 +28746,10 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K19" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M19" t="n">
         <v>79.93067970396669</v>
@@ -28761,7 +28761,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28816,46 +28816,46 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H20" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201716</v>
       </c>
       <c r="I20" t="n">
         <v>153.0249401179329</v>
       </c>
       <c r="J20" t="n">
-        <v>107.3315132100092</v>
+        <v>238.9539339270486</v>
       </c>
       <c r="K20" t="n">
-        <v>119.2206547955825</v>
+        <v>250.8430755126219</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6182276069951</v>
+        <v>238.6999887740243</v>
       </c>
       <c r="M20" t="n">
         <v>104.881609583326</v>
       </c>
       <c r="N20" t="n">
-        <v>102.7921185173354</v>
+        <v>234.4145392343749</v>
       </c>
       <c r="O20" t="n">
         <v>108.0080258701201</v>
       </c>
       <c r="P20" t="n">
-        <v>120.4975665775689</v>
+        <v>120.4975665775688</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.4803281285621</v>
+        <v>130.0243680027304</v>
       </c>
       <c r="R20" t="n">
-        <v>277.3526065700067</v>
+        <v>145.7301858529672</v>
       </c>
       <c r="S20" t="n">
-        <v>306.3018383129483</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T20" t="n">
-        <v>329.9170228201716</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U20" t="n">
-        <v>329.9170228201716</v>
+        <v>252.2989982740355</v>
       </c>
       <c r="V20" t="n">
         <v>329.9170228201716</v>
@@ -28901,28 +28901,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J21" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K21" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M21" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P21" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R21" t="n">
         <v>102.7991627330203</v>
@@ -28983,10 +28983,10 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K22" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L22" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M22" t="n">
         <v>79.93067970396669</v>
@@ -28998,7 +28998,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="C23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="D23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="E23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="F23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="G23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="H23" t="n">
-        <v>324.6944408748902</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="I23" t="n">
         <v>153.0249401179329</v>
@@ -29062,49 +29062,49 @@
         <v>107.3315132100092</v>
       </c>
       <c r="K23" t="n">
-        <v>167.9069733617575</v>
+        <v>119.2206547955825</v>
       </c>
       <c r="L23" t="n">
-        <v>249.2406483240346</v>
+        <v>117.6182276069951</v>
       </c>
       <c r="M23" t="n">
-        <v>236.5040303003655</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N23" t="n">
-        <v>234.4145392343749</v>
+        <v>102.7921185173354</v>
       </c>
       <c r="O23" t="n">
         <v>108.0080258701201</v>
       </c>
       <c r="P23" t="n">
-        <v>120.4975665775689</v>
+        <v>120.4975665775688</v>
       </c>
       <c r="Q23" t="n">
-        <v>130.0243680027304</v>
+        <v>195.2577461832807</v>
       </c>
       <c r="R23" t="n">
-        <v>145.7301858529672</v>
+        <v>277.3526065700066</v>
       </c>
       <c r="S23" t="n">
-        <v>174.6794175959089</v>
+        <v>306.3018383129483</v>
       </c>
       <c r="T23" t="n">
-        <v>220.0642436627892</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="U23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="V23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="W23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="X23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
       <c r="Y23" t="n">
-        <v>329.9170228201716</v>
+        <v>329.9170228201715</v>
       </c>
     </row>
     <row r="24">
@@ -29138,28 +29138,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J24" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K24" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M24" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P24" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R24" t="n">
         <v>102.7991627330203</v>
@@ -29220,10 +29220,10 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K25" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L25" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M25" t="n">
         <v>79.93067970396669</v>
@@ -29235,7 +29235,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="N26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O26" t="n">
-        <v>209.1282613130853</v>
+        <v>55.93330639303712</v>
       </c>
       <c r="P26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S26" t="n">
-        <v>209.1282613130853</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="27">
@@ -29372,31 +29372,31 @@
         <v>96.51723797799072</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2481505323049</v>
+        <v>72.23035288210312</v>
       </c>
       <c r="J27" t="n">
-        <v>79.36985402649258</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M27" t="n">
-        <v>51.96206476056945</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>41.51206923517107</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P27" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R27" t="n">
         <v>102.7991627330203</v>
@@ -29408,13 +29408,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W27" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X27" t="n">
         <v>195.9378182409833</v>
@@ -29460,46 +29460,46 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6741610115457</v>
+        <v>79.93067970396669</v>
       </c>
       <c r="N28" t="n">
-        <v>71.58137972518441</v>
+        <v>78.15756343001786</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>82.78808566083805</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.4981853689493</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R28" t="n">
         <v>138.576149682035</v>
       </c>
       <c r="S28" t="n">
-        <v>207.9098175327</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="J29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1282613130853</v>
+        <v>61.24924966595265</v>
       </c>
       <c r="M29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="N29" t="n">
-        <v>3.695410663768703</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y29" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="30">
@@ -29612,31 +29612,31 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J30" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K30" t="n">
-        <v>71.5135051140094</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M30" t="n">
-        <v>51.96206476056945</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517107</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>56.21137633839744</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834783</v>
+        <v>28.78648459757537</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.73346793160957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>157.8169603832221</v>
+        <v>102.7991627330203</v>
       </c>
       <c r="S30" t="n">
         <v>146.6148367064899</v>
@@ -29645,13 +29645,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U30" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V30" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W30" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -29682,61 +29682,61 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>175.043459305532</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H31" t="n">
-        <v>209.1282613130853</v>
+        <v>155.9102360382001</v>
       </c>
       <c r="I31" t="n">
-        <v>209.1282613130853</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K31" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L31" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M31" t="n">
-        <v>79.93067970396669</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>71.58137972518441</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>82.78808566083805</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q31" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R31" t="n">
-        <v>138.576149682035</v>
+        <v>186.6701635137901</v>
       </c>
       <c r="S31" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T31" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U31" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V31" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W31" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="C32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="D32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="E32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="F32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="G32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="H32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="I32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="J32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="K32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="L32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="M32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="N32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="O32" t="n">
-        <v>209.1282613130853</v>
+        <v>182.3935079359677</v>
       </c>
       <c r="P32" t="n">
-        <v>90.96392337775661</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="R32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="S32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="U32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="V32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="W32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="X32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="Y32" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>96.51723797799072</v>
       </c>
       <c r="I33" t="n">
-        <v>72.23035288210312</v>
+        <v>59.06688158894272</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29867,13 +29867,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>102.7991627330203</v>
+        <v>43.62099197830324</v>
       </c>
       <c r="S33" t="n">
         <v>146.6148367064899</v>
@@ -29882,13 +29882,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U33" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="V33" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="W33" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -29907,19 +29907,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="D34" t="n">
-        <v>194.2340178193074</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>209.1282613130853</v>
+        <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
         <v>155.9102360382001</v>
@@ -29931,25 +29931,25 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K34" t="n">
-        <v>209.1282613130853</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M34" t="n">
-        <v>79.93067970396669</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>71.58137972518441</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>82.78808566083805</v>
       </c>
       <c r="P34" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.4981853689493</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="R34" t="n">
         <v>138.576149682035</v>
@@ -29958,22 +29958,22 @@
         <v>207.9098175327</v>
       </c>
       <c r="T34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="U34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="V34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="W34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="X34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.1282613130853</v>
+        <v>209.1282613130854</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="C35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="D35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="E35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="F35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="G35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="H35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="I35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="J35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="K35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="M35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="O35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="P35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="R35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="S35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="T35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
     </row>
     <row r="36">
@@ -30086,28 +30086,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J36" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K36" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M36" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P36" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R36" t="n">
         <v>102.7991627330203</v>
@@ -30168,10 +30168,10 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K37" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L37" t="n">
-        <v>153.2145961271341</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M37" t="n">
         <v>79.93067970396669</v>
@@ -30183,7 +30183,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827531</v>
+        <v>161.3524914799434</v>
       </c>
       <c r="Q37" t="n">
         <v>105.4981853689493</v>
@@ -30198,13 +30198,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V37" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W37" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="C38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="D38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="E38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="F38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="G38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="H38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="I38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="J38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="K38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="M38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="O38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="P38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="R38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="S38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="T38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
     </row>
     <row r="39">
@@ -30323,28 +30323,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J39" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K39" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M39" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P39" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R39" t="n">
         <v>102.7991627330203</v>
@@ -30405,28 +30405,28 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K40" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M40" t="n">
         <v>79.93067970396669</v>
       </c>
       <c r="N40" t="n">
-        <v>146.4500673468522</v>
+        <v>71.58137972518441</v>
       </c>
       <c r="O40" t="n">
         <v>82.78808566083805</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R40" t="n">
-        <v>138.576149682035</v>
+        <v>213.4448373037029</v>
       </c>
       <c r="S40" t="n">
         <v>207.9098175327</v>
@@ -30435,13 +30435,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="V40" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="W40" t="n">
-        <v>250.7836203105007</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -30560,28 +30560,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J42" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K42" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M42" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P42" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R42" t="n">
         <v>102.7991627330203</v>
@@ -30618,7 +30618,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>242.7884974646045</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8557229552937</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>167.0203721066311</v>
@@ -30642,10 +30642,10 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K43" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L43" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M43" t="n">
         <v>79.93067970396669</v>
@@ -30657,7 +30657,7 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P43" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4981853689493</v>
@@ -30684,7 +30684,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>250.7836203105006</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -30797,28 +30797,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J45" t="n">
-        <v>79.36985402649258</v>
+        <v>79.36985402649256</v>
       </c>
       <c r="K45" t="n">
-        <v>71.5135051140094</v>
+        <v>71.51350511400938</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130888</v>
+        <v>58.14149588130886</v>
       </c>
       <c r="M45" t="n">
-        <v>51.96206476056945</v>
+        <v>51.96206476056943</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517107</v>
+        <v>41.51206923517104</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839744</v>
+        <v>56.21137633839741</v>
       </c>
       <c r="P45" t="n">
-        <v>60.98136935834783</v>
+        <v>60.98136935834781</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.73346793160957</v>
+        <v>81.73346793160955</v>
       </c>
       <c r="R45" t="n">
         <v>102.7991627330203</v>
@@ -30879,13 +30879,13 @@
         <v>88.32412184825276</v>
       </c>
       <c r="K46" t="n">
-        <v>80.40428934589778</v>
+        <v>80.40428934589777</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34590850546635</v>
+        <v>78.34590850546634</v>
       </c>
       <c r="M46" t="n">
-        <v>79.93067970396669</v>
+        <v>154.7993673256348</v>
       </c>
       <c r="N46" t="n">
         <v>71.58137972518441</v>
@@ -30894,10 +30894,10 @@
         <v>82.78808566083805</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827531</v>
+        <v>86.48380385827529</v>
       </c>
       <c r="Q46" t="n">
-        <v>180.3668729906173</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R46" t="n">
         <v>138.576149682035</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I11" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J11" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S11" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T11" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H12" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L12" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N12" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P12" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R12" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T12" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H13" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I13" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J13" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K13" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L13" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M13" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S13" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U13" t="n">
         <v>0.01146431122894941</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I14" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J14" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S14" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T14" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H15" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L15" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N15" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P15" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R15" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T15" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H16" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I16" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J16" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K16" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L16" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M16" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S16" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U16" t="n">
         <v>0.01146431122894941</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I17" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S17" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T17" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H18" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L18" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N18" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P18" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R18" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T18" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H19" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I19" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J19" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K19" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L19" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M19" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S19" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U19" t="n">
         <v>0.01146431122894941</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I20" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J20" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S20" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T20" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H21" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L21" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N21" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P21" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R21" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T21" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H22" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I22" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J22" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K22" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L22" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M22" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S22" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U22" t="n">
         <v>0.01146431122894941</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I23" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J23" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S23" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T23" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H24" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L24" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N24" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P24" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R24" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T24" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H25" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I25" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J25" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K25" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L25" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M25" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S25" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U25" t="n">
         <v>0.01146431122894941</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I26" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J26" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S26" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T26" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H27" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L27" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N27" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P27" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R27" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T27" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H28" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I28" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J28" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K28" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L28" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M28" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S28" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U28" t="n">
         <v>0.01146431122894941</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I29" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J29" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S29" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T29" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H30" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L30" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N30" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P30" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R30" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T30" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H31" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I31" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J31" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K31" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L31" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M31" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S31" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U31" t="n">
         <v>0.01146431122894941</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I32" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J32" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S32" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T32" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H33" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L33" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N33" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P33" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R33" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T33" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H34" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I34" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J34" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K34" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L34" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M34" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S34" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U34" t="n">
         <v>0.01146431122894941</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I35" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J35" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S35" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T35" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H36" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L36" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N36" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P36" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R36" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T36" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H37" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I37" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J37" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K37" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L37" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M37" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S37" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U37" t="n">
         <v>0.01146431122894941</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I38" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J38" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S38" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T38" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H39" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L39" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N39" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P39" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R39" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T39" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H40" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I40" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J40" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K40" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L40" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M40" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S40" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U40" t="n">
         <v>0.01146431122894941</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I41" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J41" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S41" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T41" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L42" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N42" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P42" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R42" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T42" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H43" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I43" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J43" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K43" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L43" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M43" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S43" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U43" t="n">
         <v>0.01146431122894941</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800085</v>
+        <v>0.4685581138800087</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773639</v>
+        <v>4.79862078377364</v>
       </c>
       <c r="I44" t="n">
         <v>18.06408668535905</v>
       </c>
       <c r="J44" t="n">
-        <v>39.76828421792341</v>
+        <v>39.76828421792342</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846418</v>
+        <v>59.6023491784642</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611951</v>
+        <v>73.94198455611954</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383311</v>
+        <v>82.27470491383313</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489468</v>
+        <v>83.60599565489471</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000034</v>
+        <v>78.94677091000038</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358762</v>
+        <v>67.37924247358765</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.5990050202598</v>
+        <v>50.59900502025982</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101511</v>
+        <v>29.43306362101512</v>
       </c>
       <c r="S44" t="n">
-        <v>10.6772680200407</v>
+        <v>10.67726802004071</v>
       </c>
       <c r="T44" t="n">
-        <v>2.051113143509738</v>
+        <v>2.051113143509739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03748464911040068</v>
+        <v>0.03748464911040069</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2507006927236293</v>
+        <v>0.2507006927236294</v>
       </c>
       <c r="H45" t="n">
-        <v>2.421240900778209</v>
+        <v>2.42124090077821</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896886</v>
+        <v>8.63158086789689</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017412</v>
+        <v>23.68571764017413</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265728</v>
+        <v>40.48266405265729</v>
       </c>
       <c r="L45" t="n">
-        <v>54.4339376898389</v>
+        <v>54.43393768983892</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107045</v>
+        <v>63.52183780107047</v>
       </c>
       <c r="N45" t="n">
-        <v>65.20307183253725</v>
+        <v>65.20307183253728</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271367</v>
+        <v>59.64807227271369</v>
       </c>
       <c r="P45" t="n">
-        <v>47.8728366657955</v>
+        <v>47.87283666579551</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328293</v>
+        <v>32.00172351328294</v>
       </c>
       <c r="R45" t="n">
         <v>15.56543423770043</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897233</v>
+        <v>4.656655410897235</v>
       </c>
       <c r="T45" t="n">
         <v>1.010499721986909</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655456</v>
+        <v>0.01649346662655457</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2101790391974056</v>
+        <v>0.2101790391974057</v>
       </c>
       <c r="H46" t="n">
-        <v>1.868682730318753</v>
+        <v>1.868682730318754</v>
       </c>
       <c r="I46" t="n">
-        <v>6.320656924227436</v>
+        <v>6.320656924227438</v>
       </c>
       <c r="J46" t="n">
         <v>14.85965807125658</v>
       </c>
       <c r="K46" t="n">
-        <v>24.41898291766221</v>
+        <v>24.41898291766222</v>
       </c>
       <c r="L46" t="n">
-        <v>31.24789097303974</v>
+        <v>31.24789097303976</v>
       </c>
       <c r="M46" t="n">
-        <v>32.9465197534624</v>
+        <v>32.94651975346241</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281755</v>
+        <v>32.16312515281756</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128421</v>
+        <v>29.70785183128422</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165712</v>
+        <v>25.42019943165713</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.59962845497548</v>
+        <v>17.59962845497549</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730616</v>
+        <v>9.450413889730619</v>
       </c>
       <c r="S46" t="n">
-        <v>3.662847437649331</v>
+        <v>3.662847437649332</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343692</v>
+        <v>0.8980377129343694</v>
       </c>
       <c r="U46" t="n">
         <v>0.01146431122894941</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.0393035448563</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>91.55214843121456</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>102.4460160557941</v>
       </c>
       <c r="M11" t="n">
-        <v>99.78995084877863</v>
+        <v>115.1826340794632</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>112.0562177926691</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>99.56667708522031</v>
+        <v>99.56667708522033</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03987566005875</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.33405780982194</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>45.38482606688031</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.39117343086833</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35528,10 +35528,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>24.12642542180583</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.264748009062498</v>
       </c>
     </row>
     <row r="13">
@@ -35562,16 +35562,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.62388663366836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.4170739862299</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>104.415608069601</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.03930354485628</v>
+        <v>67.0393035448563</v>
       </c>
       <c r="J14" t="n">
         <v>112.73273045278</v>
       </c>
       <c r="K14" t="n">
-        <v>100.8435888672066</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,22 +35656,22 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>106.4081924536332</v>
       </c>
       <c r="O14" t="n">
-        <v>112.0562177926691</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>99.56667708522031</v>
+        <v>99.56667708522033</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>90.03987566005878</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.93308752069678</v>
+        <v>45.38482606688031</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35750,10 +35750,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>25.39117343086833</v>
       </c>
       <c r="T15" t="n">
-        <v>25.39117343086833</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.52306942227429</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>69.57531956649484</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>49.94110571450025</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>106.3019642793716</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>81.48809398075423</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.2494364431435088</v>
       </c>
     </row>
     <row r="17">
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.222581945281388</v>
       </c>
       <c r="I17" t="n">
-        <v>131.6224207170395</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35890,31 +35890,31 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>70.45596012583168</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>11.22898200964688</v>
       </c>
       <c r="S17" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>109.8527791573824</v>
       </c>
       <c r="U17" t="n">
-        <v>77.61802454613606</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36112,25 +36112,25 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.222581945281388</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>121.0817611670292</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.45596012583171</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>109.8527791573824</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>77.61802454613606</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.222581945281331</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>48.68631856617499</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>131.6224207170395</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,19 +36376,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>65.23337818055032</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>131.6224207170394</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>109.8527791573823</v>
       </c>
       <c r="U23" t="n">
-        <v>77.61802454613606</v>
+        <v>77.618024546136</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10332119515245</v>
+        <v>56.10332119515257</v>
       </c>
       <c r="J26" t="n">
-        <v>321.622347826772</v>
+        <v>321.6223478267722</v>
       </c>
       <c r="K26" t="n">
-        <v>302.1683815469316</v>
+        <v>89.90760651750296</v>
       </c>
       <c r="L26" t="n">
-        <v>486.5906009745433</v>
+        <v>91.51003370609038</v>
       </c>
       <c r="M26" t="n">
-        <v>104.2466517297594</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="N26" t="n">
-        <v>289.2691316568815</v>
+        <v>106.33614279575</v>
       </c>
       <c r="O26" t="n">
-        <v>101.1202354429652</v>
+        <v>145.5395548353427</v>
       </c>
       <c r="P26" t="n">
-        <v>88.63069473551647</v>
+        <v>486.5906009745428</v>
       </c>
       <c r="Q26" t="n">
-        <v>79.10389331035492</v>
+        <v>79.10389331035506</v>
       </c>
       <c r="R26" t="n">
-        <v>63.39807546011811</v>
+        <v>63.39807546011824</v>
       </c>
       <c r="S26" t="n">
-        <v>34.44884371717648</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>55.01779765020177</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>55.01779765020142</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36753,16 +36753,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>58.36260690215052</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>254.7331562225832</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>6.576183704833447</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,13 +36771,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>188.5759218352131</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.218443780385484</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10332119515245</v>
+        <v>56.10332119515257</v>
       </c>
       <c r="J29" t="n">
-        <v>101.7967481030761</v>
+        <v>101.7967481030763</v>
       </c>
       <c r="K29" t="n">
-        <v>486.5906009745432</v>
+        <v>486.5906009745431</v>
       </c>
       <c r="L29" t="n">
-        <v>91.51003370609024</v>
+        <v>486.5906009745431</v>
       </c>
       <c r="M29" t="n">
-        <v>104.2466517297594</v>
+        <v>104.2466517297595</v>
       </c>
       <c r="N29" t="n">
-        <v>469.4542938820126</v>
+        <v>106.33614279575</v>
       </c>
       <c r="O29" t="n">
-        <v>142.2089614725291</v>
+        <v>101.1202354429654</v>
       </c>
       <c r="P29" t="n">
-        <v>297.8407540453586</v>
+        <v>88.63069473551661</v>
       </c>
       <c r="Q29" t="n">
-        <v>79.10389331035492</v>
+        <v>212.0089166326926</v>
       </c>
       <c r="R29" t="n">
-        <v>63.39807546011811</v>
+        <v>148.8294212949954</v>
       </c>
       <c r="S29" t="n">
-        <v>34.44884371717648</v>
+        <v>34.44884371717659</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.01779765020141</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>55.01779765020177</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36978,16 +36978,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8.023087198900903</v>
+        <v>42.10788920645438</v>
       </c>
       <c r="H31" t="n">
-        <v>53.21802527488519</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.68790428396453</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.8041394648326</v>
+        <v>164.531253184373</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>48.09401383175512</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515245</v>
+        <v>56.10332119515251</v>
       </c>
       <c r="J32" t="n">
-        <v>321.622347826772</v>
+        <v>321.6223478267722</v>
       </c>
       <c r="K32" t="n">
-        <v>303.9984671310411</v>
+        <v>133.2707384521836</v>
       </c>
       <c r="L32" t="n">
-        <v>91.51003370609024</v>
+        <v>91.51003370609033</v>
       </c>
       <c r="M32" t="n">
         <v>104.2466517297594</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3361427957499</v>
+        <v>106.33614279575</v>
       </c>
       <c r="O32" t="n">
-        <v>101.1202354429652</v>
+        <v>486.5906009745431</v>
       </c>
       <c r="P32" t="n">
-        <v>388.8046774231152</v>
+        <v>88.63069473551656</v>
       </c>
       <c r="Q32" t="n">
         <v>355.1133811682311</v>
       </c>
       <c r="R32" t="n">
-        <v>63.39807546011811</v>
+        <v>148.8294212949953</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717648</v>
+        <v>34.44884371717654</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.01779765020177</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.01779765020158</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37203,19 +37203,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.20845147014884</v>
+        <v>41.2084514701489</v>
       </c>
       <c r="D34" t="n">
-        <v>42.69284357879253</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>58.63933721679106</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>42.10788920645427</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>128.7239719671876</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>154.885367535643</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256778</v>
+        <v>97.75868019256768</v>
       </c>
       <c r="J35" t="n">
         <v>143.4521071004914</v>
       </c>
       <c r="K35" t="n">
-        <v>131.5629655149181</v>
+        <v>131.5629655149187</v>
       </c>
       <c r="L35" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035055</v>
       </c>
       <c r="M35" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271746</v>
       </c>
       <c r="N35" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O35" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P35" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.7592523077703</v>
+        <v>120.7592523077702</v>
       </c>
       <c r="R35" t="n">
-        <v>105.0534344575334</v>
+        <v>105.0534344575333</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459181</v>
+        <v>76.10420271459171</v>
       </c>
       <c r="T35" t="n">
-        <v>30.7193766477115</v>
+        <v>30.71937664771137</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>74.86868762166779</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>74.86868762166814</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256778</v>
+        <v>97.75868019256774</v>
       </c>
       <c r="J38" t="n">
         <v>143.4521071004914</v>
@@ -37546,7 +37546,7 @@
         <v>131.5629655149181</v>
       </c>
       <c r="L38" t="n">
-        <v>133.1653927035056</v>
+        <v>133.1653927035062</v>
       </c>
       <c r="M38" t="n">
         <v>145.9020107271747</v>
@@ -37555,22 +37555,22 @@
         <v>147.9915017931652</v>
       </c>
       <c r="O38" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P38" t="n">
         <v>130.2860537329318</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.7592523077703</v>
+        <v>120.7592523077702</v>
       </c>
       <c r="R38" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459181</v>
+        <v>76.10420271459176</v>
       </c>
       <c r="T38" t="n">
-        <v>30.71937664771148</v>
+        <v>30.71937664771143</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>74.86868762166779</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256772</v>
+        <v>97.75868019256774</v>
       </c>
       <c r="J41" t="n">
         <v>143.4521071004914</v>
@@ -37786,7 +37786,7 @@
         <v>133.1653927035055</v>
       </c>
       <c r="M41" t="n">
-        <v>145.9020107271746</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N41" t="n">
         <v>147.9915017931652</v>
@@ -37795,19 +37795,19 @@
         <v>142.7755944403805</v>
       </c>
       <c r="P41" t="n">
-        <v>130.2860537329317</v>
+        <v>130.2860537329318</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077711</v>
+        <v>120.7592523077702</v>
       </c>
       <c r="R41" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459175</v>
+        <v>76.10420271459176</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771143</v>
+        <v>30.71937664771144</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>43.89987453081302</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.96881309085495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>97.75868019256772</v>
+        <v>97.75868019256768</v>
       </c>
       <c r="J44" t="n">
         <v>143.4521071004914</v>
@@ -38029,22 +38029,22 @@
         <v>147.9915017931652</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403804</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P44" t="n">
         <v>130.2860537329317</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077708</v>
       </c>
       <c r="R44" t="n">
-        <v>105.0534344575334</v>
+        <v>105.0534344575333</v>
       </c>
       <c r="S44" t="n">
-        <v>76.10420271459175</v>
+        <v>76.10420271459171</v>
       </c>
       <c r="T44" t="n">
-        <v>30.71937664771143</v>
+        <v>30.71937664771137</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>74.86868762166814</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.86868762166797</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
